--- a/装修/电器.xlsx
+++ b/装修/电器.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\blog\装修\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\blogs\装修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE878CC-17C5-4FDF-8513-E43B738B639D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4842A4-A37D-44A6-995D-9AAE0072AFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="冰箱" sheetId="1" r:id="rId1"/>
+    <sheet name="洗衣机" sheetId="2" r:id="rId2"/>
+    <sheet name="洗碗机" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
   <si>
     <t>产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +62,179 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>833*600*1910</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT净味</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MR-535WUSPZE</t>
+  </si>
+  <si>
+    <t>款式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法式四门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡萨帝550WGCFDM4WKU1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>830*677*1920</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级能效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智慧动态杀菌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCD-551WLCTDM4WKU1</t>
+  </si>
+  <si>
     <t>美的536WUFPZE</t>
-  </si>
-  <si>
-    <t>833*600*1910</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海尔 BCD-501WGHFD14S8U1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>830*622*1900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海尔EG10OMATESL59S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板WB723</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colmoCGU10H-HS1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海尔XQG100-BD14336LU1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小天鹅TG100MS971LZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海尔BCD519</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海尔BCD-517WGHFD2BGTU1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的BCD-526WUFGPZMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的BCD-520WUFGPZM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡萨帝BCD-601WGCTDM4DNU1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3387+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3899+7499</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCD-526WGHTD14S8U1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCD-520WGHTD14GZU1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>905x622x1900mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级</t>
+  </si>
+  <si>
+    <t>EPP+全空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>905x594x1900mm</t>
+  </si>
+  <si>
+    <t>一级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -70,46 +242,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>双系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PT净味</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MR-535WUSPZE</t>
-  </si>
-  <si>
-    <t>款式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法式四门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡萨帝550WGCFDM4WKU1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>830*677*1920</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级能效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智慧动态杀菌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BCD-551WLCTDM4WKU1</t>
+    <t>双循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多循环</t>
+  </si>
+  <si>
+    <t>风冷</t>
+  </si>
+  <si>
+    <t>7599（6080）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清洁指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干燥指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板F80D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立上下层、全钢内胆、双风道烘干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板WB797D（WB797X）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专利风焱、全钢内胆、独立上层、小件专洗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板W76B66D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼多多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板W76D-G1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫外、独立消毒、独立烘干、五星消毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫外、独立消毒、独立烘干、独立下层、app互联、五星消毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方太V6pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100℃蒸汽杀菌、WIFI、渣洗强排、烟洗联动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -132,12 +344,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -152,8 +370,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -434,116 +656,529 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="6" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6">
+        <v>6500</v>
+      </c>
+      <c r="M6">
+        <v>6099</v>
+      </c>
+      <c r="N6">
+        <v>6099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7">
+        <v>10999</v>
+      </c>
+      <c r="L7">
+        <v>7200</v>
+      </c>
+      <c r="M7">
+        <v>6700</v>
+      </c>
+      <c r="N7">
+        <v>7099</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8">
+        <v>22999</v>
+      </c>
+      <c r="L8">
+        <v>16999</v>
+      </c>
+      <c r="M8">
+        <v>19000</v>
+      </c>
+      <c r="N8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9">
+        <v>12668</v>
+      </c>
+      <c r="L9">
+        <v>7119</v>
+      </c>
+      <c r="M9">
+        <v>7999</v>
+      </c>
+      <c r="N9">
+        <v>7999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10">
+        <v>8448</v>
+      </c>
+      <c r="L10">
+        <v>5800</v>
+      </c>
+      <c r="M10">
+        <v>10999</v>
+      </c>
+      <c r="N10">
+        <v>7999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA8E495-0C86-4407-9060-3D3EC230C5BB}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>5098</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="11.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>13500</v>
+      </c>
+      <c r="C4">
+        <v>8100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>19000</v>
+      </c>
+      <c r="C5">
+        <v>11000</v>
+      </c>
+      <c r="E5">
+        <v>15998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193BB620-2BB4-44AA-8995-09C642ED00A6}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.9140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.9140625" customWidth="1"/>
-    <col min="6" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="59.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
+        <v>9550</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4700</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4">
+        <v>1.22</v>
+      </c>
+      <c r="D4">
+        <v>1.21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4">
+        <v>4699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
+      <c r="C5">
+        <v>1.18</v>
+      </c>
+      <c r="D5">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6">
+        <v>1.24</v>
+      </c>
+      <c r="D6">
+        <v>1.25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7">
+        <v>1.24</v>
+      </c>
+      <c r="D7">
+        <v>1.29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>1.25</v>
+      </c>
+      <c r="D9">
+        <v>1.25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9">
+        <v>4800</v>
+      </c>
+      <c r="I9">
+        <v>4900</v>
       </c>
     </row>
   </sheetData>
